--- a/data/pca/factorExposure/factorExposure_2018-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01741426748941985</v>
+        <v>0.0218871115418363</v>
       </c>
       <c r="C2">
-        <v>-0.03063033629554083</v>
+        <v>-0.0173450044113479</v>
       </c>
       <c r="D2">
-        <v>0.001986938928378909</v>
+        <v>0.02381461777256715</v>
       </c>
       <c r="E2">
-        <v>0.02619476295165195</v>
+        <v>-0.01465298723631035</v>
       </c>
       <c r="F2">
-        <v>0.1133983047231873</v>
+        <v>0.01298412719435401</v>
       </c>
       <c r="G2">
-        <v>0.06054111344967184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04810546876127989</v>
+      </c>
+      <c r="H2">
+        <v>0.04717740356457608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09439202398739373</v>
+        <v>0.08929940735091346</v>
       </c>
       <c r="C3">
-        <v>-0.02564046937973576</v>
+        <v>0.01627499567245974</v>
       </c>
       <c r="D3">
-        <v>0.0798119347803922</v>
+        <v>0.04493512709865821</v>
       </c>
       <c r="E3">
-        <v>0.07936723100958171</v>
+        <v>-0.006654665725429859</v>
       </c>
       <c r="F3">
-        <v>0.4025715084011573</v>
+        <v>0.01428900451455922</v>
       </c>
       <c r="G3">
-        <v>0.1587768404106224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1813436389843041</v>
+      </c>
+      <c r="H3">
+        <v>0.1724573073611239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04135526735995485</v>
+        <v>0.04994591428288123</v>
       </c>
       <c r="C4">
-        <v>-0.002423853828676996</v>
+        <v>-0.001954590938730888</v>
       </c>
       <c r="D4">
-        <v>-0.02502781268098735</v>
+        <v>0.05085223678345171</v>
       </c>
       <c r="E4">
-        <v>-0.03889994755568234</v>
+        <v>0.02170610962719937</v>
       </c>
       <c r="F4">
-        <v>0.08277887234251803</v>
+        <v>0.05529091584761221</v>
       </c>
       <c r="G4">
-        <v>0.04218004675889828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03020051322926913</v>
+      </c>
+      <c r="H4">
+        <v>0.05343501230317516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02618013145436207</v>
+        <v>0.03059283666930038</v>
       </c>
       <c r="C6">
-        <v>-0.006627271249276528</v>
+        <v>0.000215755515655361</v>
       </c>
       <c r="D6">
-        <v>-0.0007370412354902631</v>
+        <v>0.05585748130185163</v>
       </c>
       <c r="E6">
-        <v>-0.02036771168424287</v>
+        <v>0.005510004096092844</v>
       </c>
       <c r="F6">
-        <v>0.03086496754605887</v>
+        <v>0.0326350045307308</v>
       </c>
       <c r="G6">
-        <v>-0.006079359368765546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.007984611452188956</v>
+      </c>
+      <c r="H6">
+        <v>0.06186180630187515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01893860783931071</v>
+        <v>0.02343686212865674</v>
       </c>
       <c r="C7">
-        <v>-0.008558421610596651</v>
+        <v>-0.001058655489943477</v>
       </c>
       <c r="D7">
-        <v>0.01004193006665345</v>
+        <v>0.02946129333954559</v>
       </c>
       <c r="E7">
-        <v>-0.02243087989875397</v>
+        <v>0.04275919250767707</v>
       </c>
       <c r="F7">
-        <v>0.05209219981252657</v>
+        <v>0.007757023367214881</v>
       </c>
       <c r="G7">
-        <v>0.06232570198234074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02071742917080865</v>
+      </c>
+      <c r="H7">
+        <v>0.03945059563129145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01658680585246156</v>
+        <v>0.007494321028770959</v>
       </c>
       <c r="C8">
-        <v>-0.01266469061611099</v>
+        <v>0.002492942814072217</v>
       </c>
       <c r="D8">
-        <v>-0.00312592854918543</v>
+        <v>0.01095469846451473</v>
       </c>
       <c r="E8">
-        <v>-0.03200524198890233</v>
+        <v>0.007321468648067655</v>
       </c>
       <c r="F8">
-        <v>0.1029998017853147</v>
+        <v>0.02367993405732592</v>
       </c>
       <c r="G8">
-        <v>0.0434693207424504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04151452307875704</v>
+      </c>
+      <c r="H8">
+        <v>0.04045278274500067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03273479480595411</v>
+        <v>0.03904870080982975</v>
       </c>
       <c r="C9">
-        <v>-0.009416686608504352</v>
+        <v>0.001119270502111968</v>
       </c>
       <c r="D9">
-        <v>-0.01193543687339764</v>
+        <v>0.03823270703891293</v>
       </c>
       <c r="E9">
-        <v>-0.03166898433156663</v>
+        <v>0.0100962749142497</v>
       </c>
       <c r="F9">
-        <v>0.09202328635457102</v>
+        <v>0.03195159425783813</v>
       </c>
       <c r="G9">
-        <v>0.05362450766674597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04065447531736083</v>
+      </c>
+      <c r="H9">
+        <v>0.05394666669060934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0392449426797162</v>
+        <v>0.09354063960685433</v>
       </c>
       <c r="C10">
-        <v>0.07111066660216166</v>
+        <v>0.007794941469252304</v>
       </c>
       <c r="D10">
-        <v>-0.0449705586846817</v>
+        <v>-0.1713385236952757</v>
       </c>
       <c r="E10">
-        <v>0.1357244100529087</v>
+        <v>-0.004366453603722325</v>
       </c>
       <c r="F10">
-        <v>0.03700780375370307</v>
+        <v>-0.03225029371576777</v>
       </c>
       <c r="G10">
-        <v>-0.01045008847191688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0334767553801836</v>
+      </c>
+      <c r="H10">
+        <v>0.01112131514526668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03180534911488081</v>
+        <v>0.02545614184406396</v>
       </c>
       <c r="C11">
-        <v>-0.02612664759203549</v>
+        <v>0.01188005908225792</v>
       </c>
       <c r="D11">
-        <v>0.00597249973956591</v>
+        <v>0.04509043868930181</v>
       </c>
       <c r="E11">
-        <v>-0.02504608902553486</v>
+        <v>-0.0009850301902279374</v>
       </c>
       <c r="F11">
-        <v>0.05361420403466052</v>
+        <v>0.01587337976608769</v>
       </c>
       <c r="G11">
-        <v>0.02254962850333505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02423858697564751</v>
+      </c>
+      <c r="H11">
+        <v>0.04915887839623254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03898747442892264</v>
+        <v>0.02998780608900826</v>
       </c>
       <c r="C12">
-        <v>-0.02501640179335125</v>
+        <v>0.00859900489262487</v>
       </c>
       <c r="D12">
-        <v>-0.002232176666846014</v>
+        <v>0.04354076726450139</v>
       </c>
       <c r="E12">
-        <v>-0.03572102520104205</v>
+        <v>0.008518071805666501</v>
       </c>
       <c r="F12">
-        <v>0.03446696011042837</v>
+        <v>0.01809035547860805</v>
       </c>
       <c r="G12">
-        <v>0.008528936458367369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005006805772492775</v>
+      </c>
+      <c r="H12">
+        <v>0.02068737492470178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01464202333639401</v>
+        <v>0.03050629308301252</v>
       </c>
       <c r="C13">
-        <v>-0.02184850048781105</v>
+        <v>-0.01235459345089952</v>
       </c>
       <c r="D13">
-        <v>-0.01062052429713197</v>
+        <v>0.01447352345094407</v>
       </c>
       <c r="E13">
-        <v>0.01121757506357235</v>
+        <v>-0.009839641959550611</v>
       </c>
       <c r="F13">
-        <v>0.08060174618956135</v>
+        <v>0.03058900717744789</v>
       </c>
       <c r="G13">
-        <v>0.0394144975360379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05769306226265357</v>
+      </c>
+      <c r="H13">
+        <v>0.07480861154607016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01572221970574851</v>
+        <v>0.0192180720345859</v>
       </c>
       <c r="C14">
-        <v>-0.002006290567022181</v>
+        <v>-0.0001435222918548547</v>
       </c>
       <c r="D14">
-        <v>-0.01030188015829491</v>
+        <v>0.009307304489266312</v>
       </c>
       <c r="E14">
-        <v>-0.02746594080677149</v>
+        <v>0.0145149073079734</v>
       </c>
       <c r="F14">
-        <v>0.06218325497525872</v>
+        <v>0.02034206341106136</v>
       </c>
       <c r="G14">
-        <v>0.05162110623492243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03946154630141253</v>
+      </c>
+      <c r="H14">
+        <v>0.01253302942661823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02523825157221456</v>
+        <v>0.02574344999423037</v>
       </c>
       <c r="C16">
-        <v>-0.02620641757023502</v>
+        <v>0.01137569522937503</v>
       </c>
       <c r="D16">
-        <v>0.001472278786407575</v>
+        <v>0.03732547545461781</v>
       </c>
       <c r="E16">
-        <v>-0.02094975699190129</v>
+        <v>0.002656540591462707</v>
       </c>
       <c r="F16">
-        <v>0.05960782458725821</v>
+        <v>0.0198336905817618</v>
       </c>
       <c r="G16">
-        <v>0.02547751017675467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02013482875172757</v>
+      </c>
+      <c r="H16">
+        <v>0.03659336762533758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03390846314728386</v>
+        <v>0.03789931469785573</v>
       </c>
       <c r="C19">
-        <v>-0.03268493823241397</v>
+        <v>0.001637031012988576</v>
       </c>
       <c r="D19">
-        <v>0.00771573230644609</v>
+        <v>0.02938924742349722</v>
       </c>
       <c r="E19">
-        <v>-0.01906377938307032</v>
+        <v>0.005860543033553565</v>
       </c>
       <c r="F19">
-        <v>0.1111855742945725</v>
+        <v>0.03356042105261554</v>
       </c>
       <c r="G19">
-        <v>0.04987969557342947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05736912358597674</v>
+      </c>
+      <c r="H19">
+        <v>0.07134015496597876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002443229301120152</v>
+        <v>0.01382945253718858</v>
       </c>
       <c r="C20">
-        <v>-0.005406534316205756</v>
+        <v>-0.00432046947211623</v>
       </c>
       <c r="D20">
-        <v>-0.005017295157892081</v>
+        <v>0.01838079042190351</v>
       </c>
       <c r="E20">
-        <v>-0.01744863107699603</v>
+        <v>0.006259718743337018</v>
       </c>
       <c r="F20">
-        <v>0.08759016170144669</v>
+        <v>0.02279397886405277</v>
       </c>
       <c r="G20">
-        <v>0.07206196565471391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05169514862118136</v>
+      </c>
+      <c r="H20">
+        <v>0.03038900583268326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002876998196164207</v>
+        <v>0.01793297157658629</v>
       </c>
       <c r="C21">
-        <v>0.0158735777748939</v>
+        <v>-0.006443398543171109</v>
       </c>
       <c r="D21">
-        <v>0.01616012744444341</v>
+        <v>0.01719190728234386</v>
       </c>
       <c r="E21">
-        <v>-0.03148335806017047</v>
+        <v>0.01897605803366134</v>
       </c>
       <c r="F21">
-        <v>0.04694758009357129</v>
+        <v>0.01651290343645397</v>
       </c>
       <c r="G21">
-        <v>0.01798377702436793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04659109666931754</v>
+      </c>
+      <c r="H21">
+        <v>0.04606138228656826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02785847818942523</v>
+        <v>0.0221369968812685</v>
       </c>
       <c r="C24">
-        <v>-0.02418821888754601</v>
+        <v>0.005728748809135082</v>
       </c>
       <c r="D24">
-        <v>-0.006970131096470657</v>
+        <v>0.03909252141312544</v>
       </c>
       <c r="E24">
-        <v>-0.008078153765424615</v>
+        <v>0.0009298449102173063</v>
       </c>
       <c r="F24">
-        <v>0.04911776741748897</v>
+        <v>0.01462597127791904</v>
       </c>
       <c r="G24">
-        <v>0.02350003938852674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01564070029057633</v>
+      </c>
+      <c r="H24">
+        <v>0.04586949119213987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02865575658418341</v>
+        <v>0.033799245765548</v>
       </c>
       <c r="C25">
-        <v>-0.0182245552245811</v>
+        <v>0.003835350548721225</v>
       </c>
       <c r="D25">
-        <v>0.006730981195909423</v>
+        <v>0.03892692511305715</v>
       </c>
       <c r="E25">
-        <v>-0.02592238234030473</v>
+        <v>0.004704364360943195</v>
       </c>
       <c r="F25">
-        <v>0.05788185314705403</v>
+        <v>0.02276907529963794</v>
       </c>
       <c r="G25">
-        <v>0.01144251511224576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01915743286257665</v>
+      </c>
+      <c r="H25">
+        <v>0.04446736153150771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02070565707491516</v>
+        <v>0.01887633284164144</v>
       </c>
       <c r="C26">
-        <v>-0.01718506741251976</v>
+        <v>-0.01786554407977823</v>
       </c>
       <c r="D26">
-        <v>0.02326778968831326</v>
+        <v>0.006636568184481074</v>
       </c>
       <c r="E26">
-        <v>-0.002425772804612637</v>
+        <v>-0.0006670094757367671</v>
       </c>
       <c r="F26">
-        <v>0.07563960109497718</v>
+        <v>0.005619799224962678</v>
       </c>
       <c r="G26">
-        <v>0.03919410487135742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0320437790970059</v>
+      </c>
+      <c r="H26">
+        <v>0.02595997958020786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05380996408563612</v>
+        <v>0.02279338342781877</v>
       </c>
       <c r="C27">
-        <v>-0.02246827295158045</v>
+        <v>0.00849726959747788</v>
       </c>
       <c r="D27">
-        <v>-0.03580753876220484</v>
+        <v>0.01195355436382455</v>
       </c>
       <c r="E27">
-        <v>-0.03068741065805285</v>
+        <v>0.003399548524095968</v>
       </c>
       <c r="F27">
-        <v>0.04459444478112419</v>
+        <v>0.015735675522376</v>
       </c>
       <c r="G27">
-        <v>0.05078697689169927</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.00682622003510987</v>
+      </c>
+      <c r="H27">
+        <v>-0.004819135485123385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06353450161010366</v>
+        <v>0.1383684663600077</v>
       </c>
       <c r="C28">
-        <v>0.09682424980925627</v>
+        <v>0.0003547495435813478</v>
       </c>
       <c r="D28">
-        <v>-0.06991259716604124</v>
+        <v>-0.2313295875532843</v>
       </c>
       <c r="E28">
-        <v>0.1667361677405507</v>
+        <v>0.002747398421931661</v>
       </c>
       <c r="F28">
-        <v>0.02693467649773621</v>
+        <v>-0.0309426824858522</v>
       </c>
       <c r="G28">
-        <v>-0.004229009745177896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02369909453979665</v>
+      </c>
+      <c r="H28">
+        <v>0.001577205112854676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02049983780522208</v>
+        <v>0.02282540746538786</v>
       </c>
       <c r="C29">
-        <v>-0.002240736621125596</v>
+        <v>0.001341073438195582</v>
       </c>
       <c r="D29">
-        <v>-0.01280320488063264</v>
+        <v>0.009117642145033378</v>
       </c>
       <c r="E29">
-        <v>-0.03588951765941962</v>
+        <v>0.01518228169482528</v>
       </c>
       <c r="F29">
-        <v>0.05769942898619325</v>
+        <v>0.02122353405193826</v>
       </c>
       <c r="G29">
-        <v>0.04208749398946721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0373543926061437</v>
+      </c>
+      <c r="H29">
+        <v>0.003138666647288272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08218556011023027</v>
+        <v>0.06026609151270481</v>
       </c>
       <c r="C30">
-        <v>-0.06092123945624769</v>
+        <v>0.001540335448732281</v>
       </c>
       <c r="D30">
-        <v>-0.01889632958477273</v>
+        <v>0.08532278282785932</v>
       </c>
       <c r="E30">
-        <v>-0.05129033483707614</v>
+        <v>-0.03015691680170091</v>
       </c>
       <c r="F30">
-        <v>0.1146334866049946</v>
+        <v>0.05993037761079963</v>
       </c>
       <c r="G30">
-        <v>0.05198573253236862</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05126580227395656</v>
+      </c>
+      <c r="H30">
+        <v>0.07375984557888718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05779268451448524</v>
+        <v>0.05319564062209955</v>
       </c>
       <c r="C31">
-        <v>-0.03074316827755021</v>
+        <v>0.01235520097313398</v>
       </c>
       <c r="D31">
-        <v>0.006241447405585158</v>
+        <v>0.01857014076671965</v>
       </c>
       <c r="E31">
-        <v>-0.01009044607766793</v>
+        <v>-0.003985098530531242</v>
       </c>
       <c r="F31">
-        <v>0.05042386879140224</v>
+        <v>0.008020516966856052</v>
       </c>
       <c r="G31">
-        <v>0.05173191013422288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01500410945619565</v>
+      </c>
+      <c r="H31">
+        <v>0.007779020374664324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01430423848419873</v>
+        <v>0.01177773631691497</v>
       </c>
       <c r="C32">
-        <v>-0.01013904577705635</v>
+        <v>0.01361789504193891</v>
       </c>
       <c r="D32">
-        <v>0.00534195315228585</v>
+        <v>0.008120452719319318</v>
       </c>
       <c r="E32">
-        <v>-0.07080732853609814</v>
+        <v>0.03064858997526254</v>
       </c>
       <c r="F32">
-        <v>0.08160636742884117</v>
+        <v>0.04379556458614989</v>
       </c>
       <c r="G32">
-        <v>0.03837298275213712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02082582528614754</v>
+      </c>
+      <c r="H32">
+        <v>0.05483041830380431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04225020362750637</v>
+        <v>0.04152337977144437</v>
       </c>
       <c r="C33">
-        <v>-0.03767453712433606</v>
+        <v>0.002971459703343075</v>
       </c>
       <c r="D33">
-        <v>0.03157314692237047</v>
+        <v>0.03580771369558141</v>
       </c>
       <c r="E33">
-        <v>-0.02657344983608199</v>
+        <v>-0.02265550327675572</v>
       </c>
       <c r="F33">
-        <v>0.09196430036186919</v>
+        <v>0.01024274746434537</v>
       </c>
       <c r="G33">
-        <v>0.05875638717321739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04133481340862179</v>
+      </c>
+      <c r="H33">
+        <v>0.0453165522942483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02829400634092767</v>
+        <v>0.02982642895027385</v>
       </c>
       <c r="C34">
-        <v>-0.02425386198879421</v>
+        <v>0.01940832845849406</v>
       </c>
       <c r="D34">
-        <v>-0.0006515714848423604</v>
+        <v>0.03702511176758951</v>
       </c>
       <c r="E34">
-        <v>-0.0294129493852218</v>
+        <v>0.01013293290026328</v>
       </c>
       <c r="F34">
-        <v>0.06105867621282837</v>
+        <v>0.02028578816675151</v>
       </c>
       <c r="G34">
-        <v>0.01357922750637872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01574378491973327</v>
+      </c>
+      <c r="H34">
+        <v>0.03579900256635377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01458588719328665</v>
+        <v>0.02029307001454745</v>
       </c>
       <c r="C36">
-        <v>-0.0005155717923228849</v>
+        <v>-0.005062780315334071</v>
       </c>
       <c r="D36">
-        <v>0.001259064237784599</v>
+        <v>0.002042902634717345</v>
       </c>
       <c r="E36">
-        <v>-0.02066694186233555</v>
+        <v>0.007540286223067025</v>
       </c>
       <c r="F36">
-        <v>0.04130021556020796</v>
+        <v>0.006891383832307005</v>
       </c>
       <c r="G36">
-        <v>0.03468636367864052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01771035181425871</v>
+      </c>
+      <c r="H36">
+        <v>0.01472633591602685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.003360838010340414</v>
+        <v>0.02901144519965788</v>
       </c>
       <c r="C38">
-        <v>0.005589828330573071</v>
+        <v>0.01767030620302567</v>
       </c>
       <c r="D38">
-        <v>0.01709156107941508</v>
+        <v>0.01058498013073195</v>
       </c>
       <c r="E38">
-        <v>0.02944974067463716</v>
+        <v>-0.0001674279733718909</v>
       </c>
       <c r="F38">
-        <v>0.04162099774798301</v>
+        <v>0.01584564807275796</v>
       </c>
       <c r="G38">
-        <v>0.01071462720195064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01986632832936229</v>
+      </c>
+      <c r="H38">
+        <v>0.04351941194052363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03298891355332416</v>
+        <v>0.02476017592448319</v>
       </c>
       <c r="C39">
-        <v>-0.04821706286411278</v>
+        <v>0.008441217930595572</v>
       </c>
       <c r="D39">
-        <v>-0.0003039022890918345</v>
+        <v>0.08606343950190988</v>
       </c>
       <c r="E39">
-        <v>-0.03245632321849446</v>
+        <v>-0.003686322888570902</v>
       </c>
       <c r="F39">
-        <v>0.07426695599352313</v>
+        <v>0.02687106290029095</v>
       </c>
       <c r="G39">
-        <v>0.02473284798626273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03646985291909716</v>
+      </c>
+      <c r="H39">
+        <v>0.07596883469361465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03240689514712791</v>
+        <v>0.0334535604683065</v>
       </c>
       <c r="C40">
-        <v>-0.07002018059973264</v>
+        <v>0.002449983998303512</v>
       </c>
       <c r="D40">
-        <v>-0.02196863033636886</v>
+        <v>0.02748082403844094</v>
       </c>
       <c r="E40">
-        <v>0.01240978246147951</v>
+        <v>-0.02240579641959134</v>
       </c>
       <c r="F40">
-        <v>0.0835382880108566</v>
+        <v>0.03941979217120108</v>
       </c>
       <c r="G40">
-        <v>0.04921271755235063</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01698292807430902</v>
+      </c>
+      <c r="H40">
+        <v>0.06781728357583758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001984063972324452</v>
+        <v>0.01026088881791742</v>
       </c>
       <c r="C41">
-        <v>0.001009797831975695</v>
+        <v>-0.002572340734036093</v>
       </c>
       <c r="D41">
-        <v>0.008623967078809738</v>
+        <v>-0.01579534459690458</v>
       </c>
       <c r="E41">
-        <v>-0.002808062491570616</v>
+        <v>-0.001417348315933101</v>
       </c>
       <c r="F41">
-        <v>0.01594607764742283</v>
+        <v>-0.002311801806524623</v>
       </c>
       <c r="G41">
-        <v>0.04682117467114388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005103329151723985</v>
+      </c>
+      <c r="H41">
+        <v>-0.005432406317339578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3686545076014479</v>
+        <v>0.1935537436511109</v>
       </c>
       <c r="C42">
-        <v>0.1124507431502902</v>
+        <v>-0.06113114998821629</v>
       </c>
       <c r="D42">
-        <v>0.8229511422129471</v>
+        <v>0.2506179613751165</v>
       </c>
       <c r="E42">
-        <v>0.2095086520020659</v>
+        <v>-0.215207753211407</v>
       </c>
       <c r="F42">
-        <v>-0.2681970512220587</v>
+        <v>-0.9098703055938651</v>
       </c>
       <c r="G42">
-        <v>0.1424880679010611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.05948230287933959</v>
+      </c>
+      <c r="H42">
+        <v>0.007002956140828843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0002288569450448965</v>
+        <v>0.01326150267497136</v>
       </c>
       <c r="C43">
-        <v>0.002136715874524751</v>
+        <v>-0.002697985994912653</v>
       </c>
       <c r="D43">
-        <v>0.01264911532188541</v>
+        <v>-0.01570366005041696</v>
       </c>
       <c r="E43">
-        <v>-0.003236602233504129</v>
+        <v>-0.004951750737819841</v>
       </c>
       <c r="F43">
-        <v>0.03064808710722065</v>
+        <v>-0.004598300983271713</v>
       </c>
       <c r="G43">
-        <v>0.04446323394525913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005040002644554729</v>
+      </c>
+      <c r="H43">
+        <v>0.007745428608591009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01414626224338249</v>
+        <v>0.0214073575202209</v>
       </c>
       <c r="C44">
-        <v>-0.001510032677512152</v>
+        <v>0.005398539191131967</v>
       </c>
       <c r="D44">
-        <v>0.01340860275576788</v>
+        <v>0.03054321520137342</v>
       </c>
       <c r="E44">
-        <v>0.00534235082804092</v>
+        <v>0.006257428490515271</v>
       </c>
       <c r="F44">
-        <v>0.1165011349674344</v>
+        <v>0.007837569599558725</v>
       </c>
       <c r="G44">
-        <v>0.08225054838281441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03991620360201896</v>
+      </c>
+      <c r="H44">
+        <v>0.06749396136305041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02016339978757289</v>
+        <v>0.01727426334239935</v>
       </c>
       <c r="C46">
-        <v>-0.02011716107656444</v>
+        <v>-0.004382601307767605</v>
       </c>
       <c r="D46">
-        <v>0.01209134467628888</v>
+        <v>0.01089461408375735</v>
       </c>
       <c r="E46">
-        <v>-0.03507566524759099</v>
+        <v>0.0004238705718712819</v>
       </c>
       <c r="F46">
-        <v>0.07645147938714274</v>
+        <v>0.0170899056665917</v>
       </c>
       <c r="G46">
-        <v>0.05259729025369122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04344184444659657</v>
+      </c>
+      <c r="H46">
+        <v>0.008813818258993914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09406755445507525</v>
+        <v>0.07735109746451785</v>
       </c>
       <c r="C47">
-        <v>-0.03677478933960715</v>
+        <v>0.02937569547333764</v>
       </c>
       <c r="D47">
-        <v>-0.01184092992531778</v>
+        <v>0.04073536681108223</v>
       </c>
       <c r="E47">
-        <v>-0.02914978107256036</v>
+        <v>0.0004081894318671799</v>
       </c>
       <c r="F47">
-        <v>0.03208964598429408</v>
+        <v>0.01517738344519311</v>
       </c>
       <c r="G47">
-        <v>0.07663462493821871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01289067244206509</v>
+      </c>
+      <c r="H47">
+        <v>-0.02120908075813599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01538671312805989</v>
+        <v>0.02250680039518237</v>
       </c>
       <c r="C48">
-        <v>-0.008041990510451031</v>
+        <v>0.005997617682911729</v>
       </c>
       <c r="D48">
-        <v>0.009828198879967323</v>
+        <v>0.007693372585213846</v>
       </c>
       <c r="E48">
-        <v>-0.02035418978115035</v>
+        <v>0.0005080156350409234</v>
       </c>
       <c r="F48">
-        <v>0.04856646986055474</v>
+        <v>0.01128120539965483</v>
       </c>
       <c r="G48">
-        <v>0.02507401301948904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02256240501755139</v>
+      </c>
+      <c r="H48">
+        <v>0.0201420270662649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08573160611144474</v>
+        <v>0.07432201719050617</v>
       </c>
       <c r="C50">
-        <v>-0.03517142293618351</v>
+        <v>0.02627044760692059</v>
       </c>
       <c r="D50">
-        <v>0.01273909148869556</v>
+        <v>0.04053591484075138</v>
       </c>
       <c r="E50">
-        <v>-0.03665096717359424</v>
+        <v>0.01463212025805833</v>
       </c>
       <c r="F50">
-        <v>0.06433815198180394</v>
+        <v>0.01084824066486609</v>
       </c>
       <c r="G50">
-        <v>0.03161447460735047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008202582801484719</v>
+      </c>
+      <c r="H50">
+        <v>-0.0008289230926709191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01735764420149975</v>
+        <v>0.02118688278981051</v>
       </c>
       <c r="C51">
-        <v>0.001693940436464075</v>
+        <v>-0.000902857916432371</v>
       </c>
       <c r="D51">
-        <v>0.002411592097945642</v>
+        <v>0.0007120941870812292</v>
       </c>
       <c r="E51">
-        <v>0.01926366571664627</v>
+        <v>0.005559786424034423</v>
       </c>
       <c r="F51">
-        <v>0.1003159696299373</v>
+        <v>0.005220977319114189</v>
       </c>
       <c r="G51">
-        <v>0.04534919460209536</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04767465495297465</v>
+      </c>
+      <c r="H51">
+        <v>0.0552328687924984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09820403831603484</v>
+        <v>0.09565319423276077</v>
       </c>
       <c r="C53">
-        <v>-0.04600734683116165</v>
+        <v>0.03751698732698874</v>
       </c>
       <c r="D53">
-        <v>-0.007453873497415366</v>
+        <v>0.07411687469458864</v>
       </c>
       <c r="E53">
-        <v>-0.05285440084047842</v>
+        <v>0.003211599827045691</v>
       </c>
       <c r="F53">
-        <v>-0.02987010537687195</v>
+        <v>0.0295859881507549</v>
       </c>
       <c r="G53">
-        <v>0.009131076870305071</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05337985550895166</v>
+      </c>
+      <c r="H53">
+        <v>-0.04024884548095944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02208559547167599</v>
+        <v>0.02643137025582874</v>
       </c>
       <c r="C54">
-        <v>-0.001042091841384971</v>
+        <v>0.009417270572831375</v>
       </c>
       <c r="D54">
-        <v>-0.02033700609102184</v>
+        <v>-0.01137971840305903</v>
       </c>
       <c r="E54">
-        <v>-0.0339631956212183</v>
+        <v>0.008505443023420928</v>
       </c>
       <c r="F54">
-        <v>0.04668063574323258</v>
+        <v>0.0150069861429175</v>
       </c>
       <c r="G54">
-        <v>0.05865233119054278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03658993895231715</v>
+      </c>
+      <c r="H54">
+        <v>-0.003894671469783236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09989276153862128</v>
+        <v>0.08077731958222206</v>
       </c>
       <c r="C55">
-        <v>-0.02583778328639344</v>
+        <v>0.03344743316520028</v>
       </c>
       <c r="D55">
-        <v>-0.009775335648473332</v>
+        <v>0.07034589874876744</v>
       </c>
       <c r="E55">
-        <v>-0.06952275495717541</v>
+        <v>0.01145227589212424</v>
       </c>
       <c r="F55">
-        <v>-0.01859300964134606</v>
+        <v>0.02278394190476845</v>
       </c>
       <c r="G55">
-        <v>0.05889680113850256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.025494314664535</v>
+      </c>
+      <c r="H55">
+        <v>-0.05023285742614145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1401176421328605</v>
+        <v>0.1304928099113875</v>
       </c>
       <c r="C56">
-        <v>-0.06341349967998106</v>
+        <v>0.05593260162347095</v>
       </c>
       <c r="D56">
-        <v>-0.0532166221858304</v>
+        <v>0.08863894295147354</v>
       </c>
       <c r="E56">
-        <v>-0.07117889486727313</v>
+        <v>0.001955292570674297</v>
       </c>
       <c r="F56">
-        <v>-0.067332773350239</v>
+        <v>0.04961302920977872</v>
       </c>
       <c r="G56">
-        <v>-0.03319413062539733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09082327512405877</v>
+      </c>
+      <c r="H56">
+        <v>-0.06328216893428922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0457578708974886</v>
+        <v>0.03562188607867373</v>
       </c>
       <c r="C57">
-        <v>-0.01682285260409327</v>
+        <v>-0.01118484913584991</v>
       </c>
       <c r="D57">
-        <v>0.01564515670857013</v>
+        <v>0.03584593514069234</v>
       </c>
       <c r="E57">
-        <v>0.01616875500132518</v>
+        <v>-0.008473993276980962</v>
       </c>
       <c r="F57">
-        <v>0.06634277339961263</v>
+        <v>0.01691780746034975</v>
       </c>
       <c r="G57">
-        <v>0.05450027824633921</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.068123252910848</v>
+      </c>
+      <c r="H57">
+        <v>0.04538362481391457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2097212804367298</v>
+        <v>0.1658947457486156</v>
       </c>
       <c r="C58">
-        <v>-0.1313390377567174</v>
+        <v>0.05442438884319909</v>
       </c>
       <c r="D58">
-        <v>0.05111322257061283</v>
+        <v>0.1497378188687824</v>
       </c>
       <c r="E58">
-        <v>-0.08611259335831407</v>
+        <v>-0.1752633080056436</v>
       </c>
       <c r="F58">
-        <v>0.3805314186165804</v>
+        <v>0.04699460527829889</v>
       </c>
       <c r="G58">
-        <v>0.09171525503957664</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8176465156219156</v>
+      </c>
+      <c r="H58">
+        <v>-0.3910461506374626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05798904413859654</v>
+        <v>0.1523189567407558</v>
       </c>
       <c r="C59">
-        <v>0.04723519815219746</v>
+        <v>0.009854461211244177</v>
       </c>
       <c r="D59">
-        <v>-0.08640199507794433</v>
+        <v>-0.2304682341027341</v>
       </c>
       <c r="E59">
-        <v>0.1639722166054761</v>
+        <v>-0.01680644394495053</v>
       </c>
       <c r="F59">
-        <v>0.04728828894243572</v>
+        <v>-0.003491708966923507</v>
       </c>
       <c r="G59">
-        <v>-0.02265985084307894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02219066148676058</v>
+      </c>
+      <c r="H59">
+        <v>0.03435680420242217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1548115018364941</v>
+        <v>0.1829329332185431</v>
       </c>
       <c r="C60">
-        <v>-0.09615466861699588</v>
+        <v>0.03128265567154133</v>
       </c>
       <c r="D60">
-        <v>0.02643007608404938</v>
+        <v>0.02479035398839594</v>
       </c>
       <c r="E60">
-        <v>0.1015372272131295</v>
+        <v>-0.04980479034664153</v>
       </c>
       <c r="F60">
-        <v>0.17153641206153</v>
+        <v>0.05970457828165186</v>
       </c>
       <c r="G60">
-        <v>-0.3185493489116275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02456387581956364</v>
+      </c>
+      <c r="H60">
+        <v>0.3727776811609509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01965646169095865</v>
+        <v>0.02780484240783559</v>
       </c>
       <c r="C61">
-        <v>-0.0220911157497919</v>
+        <v>0.01128506723270903</v>
       </c>
       <c r="D61">
-        <v>0.007389592780415265</v>
+        <v>0.05223041273044564</v>
       </c>
       <c r="E61">
-        <v>-0.01778737664614856</v>
+        <v>0.004274184217508612</v>
       </c>
       <c r="F61">
-        <v>0.03879233691325881</v>
+        <v>0.02608091932269997</v>
       </c>
       <c r="G61">
-        <v>0.01666312233569746</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01927607342276095</v>
+      </c>
+      <c r="H61">
+        <v>0.05744054229833374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009291723184220491</v>
+        <v>0.01379831348312023</v>
       </c>
       <c r="C63">
-        <v>-0.01561219753077786</v>
+        <v>-0.001428766526765948</v>
       </c>
       <c r="D63">
-        <v>0.01675108305343079</v>
+        <v>0.01930237860205709</v>
       </c>
       <c r="E63">
-        <v>-0.02765883222737746</v>
+        <v>0.005302222328713411</v>
       </c>
       <c r="F63">
-        <v>0.02026961142549808</v>
+        <v>0.0136115515799339</v>
       </c>
       <c r="G63">
-        <v>0.06978258333770983</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01461767148713891</v>
+      </c>
+      <c r="H63">
+        <v>0.01060911888745158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.035522621039875</v>
+        <v>0.04286311759360728</v>
       </c>
       <c r="C64">
-        <v>0.001342482360140725</v>
+        <v>0.01089659412055025</v>
       </c>
       <c r="D64">
-        <v>-0.01048571537243313</v>
+        <v>0.03456900391912757</v>
       </c>
       <c r="E64">
-        <v>-0.05080119946295023</v>
+        <v>0.0113158433232183</v>
       </c>
       <c r="F64">
-        <v>0.04018684720738814</v>
+        <v>0.006571454454373734</v>
       </c>
       <c r="G64">
-        <v>0.05582073234571463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0004801369042949388</v>
+      </c>
+      <c r="H64">
+        <v>0.03998790486965288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02865362305604508</v>
+        <v>0.03773664372429348</v>
       </c>
       <c r="C65">
-        <v>-0.007946417834745157</v>
+        <v>0.001099516956186669</v>
       </c>
       <c r="D65">
-        <v>-0.0003598535140976098</v>
+        <v>0.06553868019471576</v>
       </c>
       <c r="E65">
-        <v>-0.02257975947729753</v>
+        <v>0.008556833574113798</v>
       </c>
       <c r="F65">
-        <v>0.02639226476846966</v>
+        <v>0.03601415379725497</v>
       </c>
       <c r="G65">
-        <v>-0.01236314792327871</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002526356700255249</v>
+      </c>
+      <c r="H65">
+        <v>0.07036659827364497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03044295910350803</v>
+        <v>0.03350042337901053</v>
       </c>
       <c r="C66">
-        <v>-0.05396707590403006</v>
+        <v>0.01511669155413493</v>
       </c>
       <c r="D66">
-        <v>0.00102267024335942</v>
+        <v>0.1052147769429494</v>
       </c>
       <c r="E66">
-        <v>-0.03763801557888059</v>
+        <v>-0.005262031730650987</v>
       </c>
       <c r="F66">
-        <v>0.05903829442505946</v>
+        <v>0.04604047580787209</v>
       </c>
       <c r="G66">
-        <v>0.01383177113491174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02905106222935166</v>
+      </c>
+      <c r="H66">
+        <v>0.08065572871580433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01285692555743234</v>
+        <v>0.04869612538007092</v>
       </c>
       <c r="C67">
-        <v>-0.002947727923627111</v>
+        <v>0.01995241543343891</v>
       </c>
       <c r="D67">
-        <v>0.01293491753959154</v>
+        <v>0.01059325706272143</v>
       </c>
       <c r="E67">
-        <v>0.03418247757230738</v>
+        <v>-0.004178211234980625</v>
       </c>
       <c r="F67">
-        <v>0.02176078878456504</v>
+        <v>0.02401491427144582</v>
       </c>
       <c r="G67">
-        <v>-0.001444279452421948</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.00519429883781136</v>
+      </c>
+      <c r="H67">
+        <v>0.04315521330063211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07492584670404757</v>
+        <v>0.1435240344599492</v>
       </c>
       <c r="C68">
-        <v>0.07289646126729536</v>
+        <v>-0.01400227686993916</v>
       </c>
       <c r="D68">
-        <v>-0.09463832112155654</v>
+        <v>-0.2417075375114965</v>
       </c>
       <c r="E68">
-        <v>0.1623583726668172</v>
+        <v>-0.01059298398302839</v>
       </c>
       <c r="F68">
-        <v>0.04091180007284205</v>
+        <v>-0.03916127969681301</v>
       </c>
       <c r="G68">
-        <v>-0.0665398915374151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03764261108407314</v>
+      </c>
+      <c r="H68">
+        <v>-0.0352800414485001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06744308066562558</v>
+        <v>0.06297427555402607</v>
       </c>
       <c r="C69">
-        <v>-0.04319510467942868</v>
+        <v>0.02936458258013009</v>
       </c>
       <c r="D69">
-        <v>-0.01650576445620264</v>
+        <v>0.0396927782554156</v>
       </c>
       <c r="E69">
-        <v>-0.01431203654484146</v>
+        <v>-0.0003429169185579898</v>
       </c>
       <c r="F69">
-        <v>0.02174923804337446</v>
+        <v>0.02602436574929156</v>
       </c>
       <c r="G69">
-        <v>0.0758847271007097</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01964868665325087</v>
+      </c>
+      <c r="H69">
+        <v>0.004845297049416538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07860202165166394</v>
+        <v>0.1386699521628972</v>
       </c>
       <c r="C71">
-        <v>0.07414774880429149</v>
+        <v>-0.001885312477817747</v>
       </c>
       <c r="D71">
-        <v>-0.07305831999293365</v>
+        <v>-0.2096033190636143</v>
       </c>
       <c r="E71">
-        <v>0.2207751809778107</v>
+        <v>-0.01726775044991298</v>
       </c>
       <c r="F71">
-        <v>0.03117726850151942</v>
+        <v>-0.04363475570889543</v>
       </c>
       <c r="G71">
-        <v>0.0001053377410134167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03582954348713685</v>
+      </c>
+      <c r="H71">
+        <v>-0.01725051385933412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1080643389238934</v>
+        <v>0.0816530385413578</v>
       </c>
       <c r="C72">
-        <v>-0.07301531197521553</v>
+        <v>0.03970563745233877</v>
       </c>
       <c r="D72">
-        <v>-0.06089566345875201</v>
+        <v>0.07165913744023403</v>
       </c>
       <c r="E72">
-        <v>-0.01643736823325703</v>
+        <v>-0.01612940280363822</v>
       </c>
       <c r="F72">
-        <v>0.1048705052784023</v>
+        <v>0.07742573624045747</v>
       </c>
       <c r="G72">
-        <v>-0.07001038949174057</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01794178821339735</v>
+      </c>
+      <c r="H72">
+        <v>0.1326393688735986</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2258761142858604</v>
+        <v>0.2506862227391335</v>
       </c>
       <c r="C73">
-        <v>-0.1294775331671912</v>
+        <v>0.04510951085265315</v>
       </c>
       <c r="D73">
-        <v>0.03124492052720538</v>
+        <v>0.08354453457593429</v>
       </c>
       <c r="E73">
-        <v>0.1903623807051178</v>
+        <v>-0.08911417377343221</v>
       </c>
       <c r="F73">
-        <v>0.2050592116000547</v>
+        <v>0.07078469057873076</v>
       </c>
       <c r="G73">
-        <v>-0.4326627238812956</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.02911832292056996</v>
+      </c>
+      <c r="H73">
+        <v>0.4822598501673817</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1345241062989789</v>
+        <v>0.1264364211280477</v>
       </c>
       <c r="C74">
-        <v>-0.03525756942622187</v>
+        <v>0.05493015627583834</v>
       </c>
       <c r="D74">
-        <v>-0.01912922036493232</v>
+        <v>0.09730879066260074</v>
       </c>
       <c r="E74">
-        <v>-0.03897725630266764</v>
+        <v>0.004213918145303074</v>
       </c>
       <c r="F74">
-        <v>-0.06577193510348592</v>
+        <v>0.0355476949885645</v>
       </c>
       <c r="G74">
-        <v>-0.01828357064354589</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07494518836691651</v>
+      </c>
+      <c r="H74">
+        <v>-0.03456051061602219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2232805304628044</v>
+        <v>0.2360122610548778</v>
       </c>
       <c r="C75">
-        <v>-0.104089274174868</v>
+        <v>0.1019402018642413</v>
       </c>
       <c r="D75">
-        <v>-0.09407085911098803</v>
+        <v>0.1471385236094244</v>
       </c>
       <c r="E75">
-        <v>-0.1050397004598371</v>
+        <v>-0.01115353324598339</v>
       </c>
       <c r="F75">
-        <v>-0.09328897775739266</v>
+        <v>0.09506688477016084</v>
       </c>
       <c r="G75">
-        <v>-0.004205946287453618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1550038644617439</v>
+      </c>
+      <c r="H75">
+        <v>-0.1445898991444117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2687543653903589</v>
+        <v>0.2091738767381996</v>
       </c>
       <c r="C76">
-        <v>-0.09708517329979648</v>
+        <v>0.09531347555376236</v>
       </c>
       <c r="D76">
-        <v>-0.1470819578976552</v>
+        <v>0.1382563142069924</v>
       </c>
       <c r="E76">
-        <v>-0.1387685615731233</v>
+        <v>0.03497522673832237</v>
       </c>
       <c r="F76">
-        <v>-0.1651519821449431</v>
+        <v>0.09060405724799024</v>
       </c>
       <c r="G76">
-        <v>-0.01525962511810075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1529479509349305</v>
+      </c>
+      <c r="H76">
+        <v>-0.1465019636512369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1229428818275459</v>
+        <v>0.07605117538272653</v>
       </c>
       <c r="C77">
-        <v>-0.05323922631878457</v>
+        <v>0.01378073159484531</v>
       </c>
       <c r="D77">
-        <v>0.07216282319710936</v>
+        <v>0.06757156075551704</v>
       </c>
       <c r="E77">
-        <v>-0.04728201682757838</v>
+        <v>-0.01023793930912764</v>
       </c>
       <c r="F77">
-        <v>0.1862674100839312</v>
+        <v>-0.001306289435001825</v>
       </c>
       <c r="G77">
-        <v>0.2029327484142285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08663555934487802</v>
+      </c>
+      <c r="H77">
+        <v>0.01227258997713799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07106123240800695</v>
+        <v>0.0471427979640118</v>
       </c>
       <c r="C78">
-        <v>-0.04498820385740503</v>
+        <v>0.01488060528203758</v>
       </c>
       <c r="D78">
-        <v>0.02266628747313094</v>
+        <v>0.05861169538573011</v>
       </c>
       <c r="E78">
-        <v>-0.07389644155387776</v>
+        <v>0.003385109663329848</v>
       </c>
       <c r="F78">
-        <v>0.1174347073566416</v>
+        <v>0.03214128945052237</v>
       </c>
       <c r="G78">
-        <v>0.02919681943327882</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0588102307254755</v>
+      </c>
+      <c r="H78">
+        <v>0.07572169539132313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2588305488691979</v>
+        <v>0.1455625319403987</v>
       </c>
       <c r="C80">
-        <v>0.8476177720058531</v>
+        <v>0.03666025257975031</v>
       </c>
       <c r="D80">
-        <v>-0.06414551140685162</v>
+        <v>0.0580255391966152</v>
       </c>
       <c r="E80">
-        <v>-0.3871025096770493</v>
+        <v>0.9426805381217643</v>
       </c>
       <c r="F80">
-        <v>0.1181155285926172</v>
+        <v>-0.1969083714740899</v>
       </c>
       <c r="G80">
-        <v>-0.1193055335557395</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1501965848425115</v>
+      </c>
+      <c r="H80">
+        <v>0.01633750046361015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1702137988939392</v>
+        <v>0.1574250816895812</v>
       </c>
       <c r="C81">
-        <v>-0.06989922575101773</v>
+        <v>0.06658207902145699</v>
       </c>
       <c r="D81">
-        <v>-0.0957180713769958</v>
+        <v>0.09128654441195148</v>
       </c>
       <c r="E81">
-        <v>-0.08023038646049264</v>
+        <v>0.009716834692857603</v>
       </c>
       <c r="F81">
-        <v>-0.1224818720268648</v>
+        <v>0.06147149664434103</v>
       </c>
       <c r="G81">
-        <v>-0.03359004350192529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1022322128156064</v>
+      </c>
+      <c r="H81">
+        <v>-0.09386279608795088</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03784530157786925</v>
+        <v>0.03643493515893548</v>
       </c>
       <c r="C83">
-        <v>-0.03359326584962963</v>
+        <v>0.007336158871654347</v>
       </c>
       <c r="D83">
-        <v>0.02155052831161817</v>
+        <v>0.02226676858338663</v>
       </c>
       <c r="E83">
-        <v>-0.003931432000277483</v>
+        <v>-0.007839872324042716</v>
       </c>
       <c r="F83">
-        <v>0.06339567401226952</v>
+        <v>0.01652996145339891</v>
       </c>
       <c r="G83">
-        <v>0.03517472645217912</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04697077270495092</v>
+      </c>
+      <c r="H83">
+        <v>0.03913709606324389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2465472261528753</v>
+        <v>0.2257285353981281</v>
       </c>
       <c r="C85">
-        <v>-0.1001061710758959</v>
+        <v>0.08665751646932124</v>
       </c>
       <c r="D85">
-        <v>-0.1029604737524869</v>
+        <v>0.1509934097815797</v>
       </c>
       <c r="E85">
-        <v>-0.1057249541417075</v>
+        <v>-0.004717420403507367</v>
       </c>
       <c r="F85">
-        <v>-0.09939888223731559</v>
+        <v>0.07879922168504178</v>
       </c>
       <c r="G85">
-        <v>0.02454164737182872</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1670996594806385</v>
+      </c>
+      <c r="H85">
+        <v>-0.1063274424637185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007741425886467418</v>
+        <v>0.02783322681089122</v>
       </c>
       <c r="C86">
-        <v>-0.003761155935822038</v>
+        <v>0.003684887619096299</v>
       </c>
       <c r="D86">
-        <v>0.02143705277596305</v>
+        <v>0.02997256844532073</v>
       </c>
       <c r="E86">
-        <v>-0.04144127615953553</v>
+        <v>-0.004088326512087083</v>
       </c>
       <c r="F86">
-        <v>0.07725395518207806</v>
+        <v>0.004327443060878966</v>
       </c>
       <c r="G86">
-        <v>0.02105217687286841</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07715242771776222</v>
+      </c>
+      <c r="H86">
+        <v>0.09700192630433976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04092195223069622</v>
+        <v>0.03036004137065437</v>
       </c>
       <c r="C87">
-        <v>0.002832653400809425</v>
+        <v>0.004781298238577783</v>
       </c>
       <c r="D87">
-        <v>0.01308837779197139</v>
+        <v>0.04340740817454419</v>
       </c>
       <c r="E87">
-        <v>-0.009555661409992301</v>
+        <v>0.008065477249369886</v>
       </c>
       <c r="F87">
-        <v>0.1249000395577109</v>
+        <v>0.01733385414627639</v>
       </c>
       <c r="G87">
-        <v>0.0457832996158004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08055069896292186</v>
+      </c>
+      <c r="H87">
+        <v>0.08089403821951256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.009842545937755737</v>
+        <v>0.0391190537838602</v>
       </c>
       <c r="C88">
-        <v>0.01304034927840707</v>
+        <v>-0.0107360124572227</v>
       </c>
       <c r="D88">
-        <v>-0.01006182701657861</v>
+        <v>0.01507128990810105</v>
       </c>
       <c r="E88">
-        <v>-0.01363989657073226</v>
+        <v>0.01070034144371304</v>
       </c>
       <c r="F88">
-        <v>0.001532282425245837</v>
+        <v>0.01422128566232021</v>
       </c>
       <c r="G88">
-        <v>0.04923745156204801</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0058342590122133</v>
+      </c>
+      <c r="H88">
+        <v>0.02182206522917394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1072882117654092</v>
+        <v>0.2361865629750863</v>
       </c>
       <c r="C89">
-        <v>0.1094144527525401</v>
+        <v>-0.006171536261779544</v>
       </c>
       <c r="D89">
-        <v>-0.1240631164159869</v>
+        <v>-0.364637979984469</v>
       </c>
       <c r="E89">
-        <v>0.2673379081315619</v>
+        <v>-0.02518966431517537</v>
       </c>
       <c r="F89">
-        <v>0.06452917227862996</v>
+        <v>-0.02817208160298833</v>
       </c>
       <c r="G89">
-        <v>-0.004318581647944485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001965322597939739</v>
+      </c>
+      <c r="H89">
+        <v>0.01606126855337606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09627129831197763</v>
+        <v>0.190065101689669</v>
       </c>
       <c r="C90">
-        <v>0.1453907187974752</v>
+        <v>-0.006907293541800245</v>
       </c>
       <c r="D90">
-        <v>-0.1401897694634342</v>
+        <v>-0.3257288080761175</v>
       </c>
       <c r="E90">
-        <v>0.2870988925591463</v>
+        <v>-0.01717844322892968</v>
       </c>
       <c r="F90">
-        <v>0.01345028429044906</v>
+        <v>-0.05713995193533714</v>
       </c>
       <c r="G90">
-        <v>0.01313256400934893</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.007804942079330482</v>
+      </c>
+      <c r="H90">
+        <v>-0.0423199554687707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2989378206393634</v>
+        <v>0.2390739212662919</v>
       </c>
       <c r="C91">
-        <v>-0.1275016578550896</v>
+        <v>0.09959090284017087</v>
       </c>
       <c r="D91">
-        <v>-0.1007292333520571</v>
+        <v>0.1294045916132454</v>
       </c>
       <c r="E91">
-        <v>-0.1135193960974511</v>
+        <v>-0.01095121304867875</v>
       </c>
       <c r="F91">
-        <v>-0.2334769636397677</v>
+        <v>0.0769558791049568</v>
       </c>
       <c r="G91">
-        <v>-0.03498976773079746</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1803641643340347</v>
+      </c>
+      <c r="H91">
+        <v>-0.1872361599114854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1790119693261136</v>
+        <v>0.243005152340336</v>
       </c>
       <c r="C92">
-        <v>0.09046021104329707</v>
+        <v>0.06041370177011689</v>
       </c>
       <c r="D92">
-        <v>-0.2989026400479001</v>
+        <v>-0.2621250222326396</v>
       </c>
       <c r="E92">
-        <v>0.3185759980645888</v>
+        <v>-0.004321901023429616</v>
       </c>
       <c r="F92">
-        <v>-0.1236913269709098</v>
+        <v>0.004556265113117521</v>
       </c>
       <c r="G92">
-        <v>0.5599009037163654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.003504898873421617</v>
+      </c>
+      <c r="H92">
+        <v>-0.1339948849396521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09787196330540204</v>
+        <v>0.2129030132409891</v>
       </c>
       <c r="C93">
-        <v>0.137160551688267</v>
+        <v>0.002263973395243692</v>
       </c>
       <c r="D93">
-        <v>-0.1675564360617128</v>
+        <v>-0.3422585646576278</v>
       </c>
       <c r="E93">
-        <v>0.4100867719192764</v>
+        <v>-0.03893071573591799</v>
       </c>
       <c r="F93">
-        <v>-0.03251489905355865</v>
+        <v>-0.0592447122446831</v>
       </c>
       <c r="G93">
-        <v>-0.05857106267436128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.002087701840047745</v>
+      </c>
+      <c r="H93">
+        <v>0.01289338577901452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2956872858577421</v>
+        <v>0.2626611494982509</v>
       </c>
       <c r="C94">
-        <v>-0.1624688498073359</v>
+        <v>0.08868327988315326</v>
       </c>
       <c r="D94">
-        <v>-0.1969601117355275</v>
+        <v>0.1238994872830612</v>
       </c>
       <c r="E94">
-        <v>-0.1203311802370231</v>
+        <v>-0.02484846340723953</v>
       </c>
       <c r="F94">
-        <v>-0.1954540940738683</v>
+        <v>0.1248607696544696</v>
       </c>
       <c r="G94">
-        <v>-0.03918831862996076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1763224378946557</v>
+      </c>
+      <c r="H94">
+        <v>-0.2270258484445013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0561517523204638</v>
+        <v>0.06144427270476684</v>
       </c>
       <c r="C95">
-        <v>-0.06531089092840008</v>
+        <v>0.03517806919329127</v>
       </c>
       <c r="D95">
-        <v>0.04575774889784404</v>
+        <v>0.08477538215937508</v>
       </c>
       <c r="E95">
-        <v>-0.08118347162648736</v>
+        <v>-0.07938975078165811</v>
       </c>
       <c r="F95">
-        <v>0.01871885860251801</v>
+        <v>0.009224637495701907</v>
       </c>
       <c r="G95">
-        <v>0.174925262614593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04872865678759981</v>
+      </c>
+      <c r="H95">
+        <v>0.04642192069601449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1732675377523586</v>
+        <v>0.1874761446256431</v>
       </c>
       <c r="C98">
-        <v>-0.05571367488709649</v>
+        <v>0.06269854500715295</v>
       </c>
       <c r="D98">
-        <v>0.04129099851688008</v>
+        <v>0.03738068739188424</v>
       </c>
       <c r="E98">
-        <v>0.1339641594625429</v>
+        <v>-0.05340178325023966</v>
       </c>
       <c r="F98">
-        <v>0.1240159416027289</v>
+        <v>0.02676298994749221</v>
       </c>
       <c r="G98">
-        <v>-0.3433766417809593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06513945268787323</v>
+      </c>
+      <c r="H98">
+        <v>0.3468545674126646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006437078085232485</v>
+        <v>0.01666612406997634</v>
       </c>
       <c r="C101">
-        <v>-0.01556352083584991</v>
+        <v>8.323041621394661e-05</v>
       </c>
       <c r="D101">
-        <v>-0.001802516506189327</v>
+        <v>0.01161557039900662</v>
       </c>
       <c r="E101">
-        <v>-0.07042013901173398</v>
+        <v>0.007232621931029528</v>
       </c>
       <c r="F101">
-        <v>0.1790569328010012</v>
+        <v>0.0300985032547339</v>
       </c>
       <c r="G101">
-        <v>0.1286895094634974</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1041939101893175</v>
+      </c>
+      <c r="H101">
+        <v>-0.02403314000834514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1125669815305551</v>
+        <v>0.1092715406238299</v>
       </c>
       <c r="C102">
-        <v>-0.05086952157633232</v>
+        <v>0.03454012445674134</v>
       </c>
       <c r="D102">
-        <v>-0.03614359999017177</v>
+        <v>0.07377452345970026</v>
       </c>
       <c r="E102">
-        <v>-0.07746143981566744</v>
+        <v>9.701931227399086e-05</v>
       </c>
       <c r="F102">
-        <v>-0.09041851932005866</v>
+        <v>0.04191577559773578</v>
       </c>
       <c r="G102">
-        <v>0.0009660168160817971</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09232112849997215</v>
+      </c>
+      <c r="H102">
+        <v>-0.07295853247672637</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03452054144900394</v>
+        <v>0.01763223222311346</v>
       </c>
       <c r="C103">
-        <v>0.0002040618564736644</v>
+        <v>0.006760797250830963</v>
       </c>
       <c r="D103">
-        <v>-0.01726577635386018</v>
+        <v>0.01465022170423168</v>
       </c>
       <c r="E103">
-        <v>-0.04266307708522686</v>
+        <v>0.009727184103977082</v>
       </c>
       <c r="F103">
-        <v>0.00297915338542995</v>
+        <v>0.009303341049811968</v>
       </c>
       <c r="G103">
-        <v>0.005251362300178614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0005924665202091664</v>
+      </c>
+      <c r="H103">
+        <v>-0.01455767371891375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2185050374913988</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9550110143408596</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1015373532984294</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02798540236456537</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1297050763555389</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03405258433354415</v>
+      </c>
+      <c r="H104">
+        <v>-0.05269508931702346</v>
       </c>
     </row>
   </sheetData>
